--- a/May'21/04.05.2021/Daily Sales Info.xlsx
+++ b/May'21/04.05.2021/Daily Sales Info.xlsx
@@ -809,6 +809,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13008,80 +13008,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -13120,19 +13120,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -13144,13 +13144,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -14181,11 +14181,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -14256,11 +14256,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>581828</v>
@@ -14297,14 +14297,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -14558,80 +14558,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -14663,26 +14663,26 @@
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -14694,13 +14694,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -15731,11 +15731,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -15806,11 +15806,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -15841,20 +15841,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -16108,80 +16108,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -16213,26 +16213,26 @@
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -16244,13 +16244,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -17281,11 +17281,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -17356,11 +17356,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -17391,20 +17391,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -17658,80 +17658,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -17763,26 +17763,26 @@
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -17794,13 +17794,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -18831,11 +18831,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -18906,11 +18906,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -18941,20 +18941,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -19208,80 +19208,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -19313,26 +19313,26 @@
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -19344,13 +19344,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -20381,11 +20381,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -20456,11 +20456,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -20491,20 +20491,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -20758,80 +20758,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -20863,26 +20863,26 @@
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -20894,13 +20894,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -21931,11 +21931,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -22006,11 +22006,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -22041,20 +22041,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -22308,80 +22308,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -22413,26 +22413,26 @@
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -22444,13 +22444,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23481,11 +23481,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -23556,11 +23556,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -23591,20 +23591,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -23858,80 +23858,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -23963,26 +23963,26 @@
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -23994,13 +23994,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -25031,11 +25031,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -25106,11 +25106,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -25141,20 +25141,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -25408,80 +25408,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -25513,26 +25513,26 @@
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -25544,13 +25544,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -26581,11 +26581,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -26656,11 +26656,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -26691,20 +26691,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -26958,80 +26958,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -27063,26 +27063,26 @@
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -27094,13 +27094,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -28131,11 +28131,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -28206,11 +28206,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -28241,20 +28241,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -28508,80 +28508,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -28613,26 +28613,26 @@
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -28644,13 +28644,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -29681,11 +29681,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -29756,11 +29756,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -29791,20 +29791,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -30058,80 +30058,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>753669</v>
@@ -30161,19 +30161,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -30185,13 +30185,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31355,11 +31355,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>171841</v>
@@ -31430,11 +31430,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>581828</v>
@@ -31471,14 +31471,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -31727,80 +31727,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -31832,26 +31832,26 @@
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -31863,13 +31863,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -32900,11 +32900,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -32975,11 +32975,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -33010,20 +33010,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -33277,80 +33277,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -33382,26 +33382,26 @@
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -33413,13 +33413,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -34450,11 +34450,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -34525,11 +34525,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -34560,20 +34560,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -34827,80 +34827,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -34932,26 +34932,26 @@
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -34963,13 +34963,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -36000,11 +36000,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -36075,11 +36075,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -36110,20 +36110,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -36377,80 +36377,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -36482,26 +36482,26 @@
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -36513,13 +36513,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -37550,11 +37550,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -37625,11 +37625,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -37660,20 +37660,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -37927,80 +37927,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -38032,26 +38032,26 @@
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -38063,13 +38063,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -39100,11 +39100,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -39175,11 +39175,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -39210,20 +39210,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -39477,80 +39477,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -39582,26 +39582,26 @@
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -39613,13 +39613,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -40650,11 +40650,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -40725,11 +40725,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -41027,80 +41027,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -41132,26 +41132,26 @@
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -41163,13 +41163,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -42200,11 +42200,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -42275,11 +42275,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -42310,20 +42310,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -42577,80 +42577,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -42682,26 +42682,26 @@
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -42713,13 +42713,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -43750,11 +43750,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -43825,11 +43825,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -43860,20 +43860,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -44127,80 +44127,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -44232,26 +44232,26 @@
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -44263,13 +44263,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -45300,11 +45300,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -45375,11 +45375,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -45410,20 +45410,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -45677,80 +45677,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -45782,26 +45782,26 @@
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -45813,13 +45813,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -46850,11 +46850,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -46925,11 +46925,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -46960,20 +46960,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -47227,80 +47227,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -47339,19 +47339,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>118314</v>
@@ -47369,13 +47369,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -48559,11 +48559,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>166216</v>
@@ -48634,11 +48634,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -48675,14 +48675,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -48937,80 +48937,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -49042,26 +49042,26 @@
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -49073,13 +49073,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -50110,11 +50110,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -50185,11 +50185,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -50220,20 +50220,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -50487,80 +50487,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -50592,26 +50592,26 @@
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -50623,13 +50623,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -51660,11 +51660,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -51735,11 +51735,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -51770,20 +51770,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -52036,78 +52036,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D4</f>
@@ -52146,19 +52146,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'2'!D5+'1'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -52197,13 +52197,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -52383,7 +52383,7 @@
       </c>
       <c r="K8" s="21">
         <f>'2'!K8+'1'!K8+'3'!K8+'4'!K8+'5'!K8+'6'!K8+'7'!K8+'8'!K8+'9'!K8+'10'!K8+'11'!K8+'12'!K8+'13'!K8+'14'!K8+'15'!K8+'16'!K8+'17'!K8+'18'!K8+'19'!K8+'20'!K8+'21'!K8+'22'!K8+'23'!K8+'24'!K8+'25'!K8+'26'!K8+'27'!K8+'28'!K8+'29'!K8+'30'!K8+'31'!K8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="21">
         <f>'2'!L8+'1'!L8+'3'!L8+'4'!L8+'5'!L8+'6'!L8+'7'!L8+'8'!L8+'9'!L8+'10'!L8+'11'!L8+'12'!L8+'13'!L8+'14'!L8+'15'!L8+'16'!L8+'17'!L8+'18'!L8+'19'!L8+'20'!L8+'21'!L8+'22'!L8+'23'!L8+'24'!L8+'25'!L8+'26'!L8+'27'!L8+'28'!L8+'29'!L8+'30'!L8+'31'!L8</f>
@@ -52395,7 +52395,7 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>20753</v>
+        <v>21663</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
@@ -52408,7 +52408,7 @@
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>20196.654999999999</v>
+        <v>21106.654999999999</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
@@ -53864,11 +53864,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>518102</v>
@@ -53899,7 +53899,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -53911,7 +53911,7 @@
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>687507</v>
+        <v>688417</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
@@ -53927,7 +53927,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>665194.09500000009</v>
+        <v>666104.09500000009</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
@@ -53939,11 +53939,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -53974,20 +53974,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -54220,8 +54220,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54237,80 +54237,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -54349,19 +54349,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>337324</v>
@@ -54381,13 +54381,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -54522,7 +54522,9 @@
         <v>5</v>
       </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>5</v>
+      </c>
       <c r="L8" s="20"/>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
@@ -54530,7 +54532,7 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>6252</v>
+        <v>7162</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
@@ -54542,7 +54544,7 @@
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>6026.3325000000004</v>
+        <v>6936.3325000000004</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
@@ -55319,7 +55321,7 @@
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="54">
         <v>8017</v>
       </c>
       <c r="E23" s="30"/>
@@ -55580,11 +55582,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>180045</v>
@@ -55615,7 +55617,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -55627,7 +55629,7 @@
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>237879</v>
+        <v>238789</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
@@ -55643,7 +55645,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>229824.11249999996</v>
+        <v>230734.11249999996</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
@@ -55655,11 +55657,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -55690,20 +55692,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -55958,80 +55960,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -56063,7 +56065,7 @@
       </c>
       <c r="K4" s="2">
         <f>'4'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'4'!L29</f>
@@ -56073,19 +56075,19 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -56097,13 +56099,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -57134,11 +57136,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -57209,11 +57211,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -57244,20 +57246,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -57511,80 +57513,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -57616,26 +57618,26 @@
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -57647,13 +57649,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -58684,11 +58686,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -58759,11 +58761,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -58794,20 +58796,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -59061,80 +59063,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -59166,26 +59168,26 @@
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -59197,13 +59199,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -60234,11 +60236,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -60309,11 +60311,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -60344,20 +60346,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -60611,80 +60613,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -60716,26 +60718,26 @@
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -60747,13 +60749,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -61784,11 +61786,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -61859,11 +61861,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -61894,20 +61896,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -62161,80 +62163,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -62266,26 +62268,26 @@
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -62297,13 +62299,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -63334,11 +63336,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -63409,11 +63411,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -63444,20 +63446,20 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
